--- a/sheets/student.xlsx
+++ b/sheets/student.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -436,4 +437,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>